--- a/Data/BossSpawnData.xlsx
+++ b/Data/BossSpawnData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\BroGame\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABA0C44-0391-4104-AABD-8448B68560E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C266C5A6-19E0-4B35-A7AF-893FE64E334F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="2070" windowWidth="21600" windowHeight="11385" xr2:uid="{85F11096-AC3F-4D9D-B598-BE09DDB71694}"/>
+    <workbookView xWindow="3360" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{85F11096-AC3F-4D9D-B598-BE09DDB71694}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Num</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +46,14 @@
   </si>
   <si>
     <t>Blueprint'/Game/Character/Boss/Boss_SuperMinion/Boss_SuperMinion.Boss_SuperMinion_C'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blueprint'/Game/Character/Boss/Boss_Volcano/Boss_Volcano.Boss_Volcano_C'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blueprint'/Game/Character/Boss/Boss_Grim/Boss_Grim.Boss_Grim_C'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,7 +430,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -477,6 +485,9 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -485,7 +496,12 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -494,7 +510,9 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>

--- a/Data/BossSpawnData.xlsx
+++ b/Data/BossSpawnData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\BroGame\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C266C5A6-19E0-4B35-A7AF-893FE64E334F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DABA62-E0A0-44BF-BB5C-30F4328F0A33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{85F11096-AC3F-4D9D-B598-BE09DDB71694}"/>
+    <workbookView xWindow="9900" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{85F11096-AC3F-4D9D-B598-BE09DDB71694}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,29 +31,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BossClassPath</t>
+    <t>BossName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Blueprint'/Game/Character/Boss/Boss_WhiteMinion/Boss_WhiteMinion.Boss_WhiteMinion_C'</t>
+    <t>WhiteMinion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Blueprint'/Game/Character/Boss/Boss_SuperMinion/Boss_SuperMinion.Boss_SuperMinion_C'</t>
+    <t>SuperMinion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Blueprint'/Game/Character/Boss/Boss_Volcano/Boss_Volcano.Boss_Volcano_C'</t>
+    <t>Volcano</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Blueprint'/Game/Character/Boss/Boss_Grim/Boss_Grim.Boss_Grim_C'</t>
+    <t>Grim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helix</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,13 +434,13 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -512,6 +516,9 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
